--- a/data-raw/clen_data.xlsx
+++ b/data-raw/clen_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vgz813\Desktop\R\2021_clenbuterol\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CF88E3-71EB-480C-9267-315B14D8D807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA9B20-A5D8-4B1D-BE87-05A55299B809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <sheet name="WB" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$CG$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$CH$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">MVC!$A$2:$AX$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>110&gt;vo2max</t>
+  </si>
+  <si>
+    <t>lv_mass</t>
+  </si>
+  <si>
+    <t>lv_sv</t>
   </si>
 </sst>
 </file>
@@ -761,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -896,7 +902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2966,7 +2971,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AA6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="41">
     <pivotField axis="axisCol" showAll="0">
@@ -3401,13 +3406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG51"/>
+  <dimension ref="A1:CH51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,7 +3429,7 @@
     <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3518,11 +3523,15 @@
       <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="112" t="s">
+      <c r="AF1" t="s">
         <v>51</v>
       </c>
-      <c r="AG1"/>
-      <c r="AH1"/>
+      <c r="AG1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>88</v>
+      </c>
       <c r="AI1"/>
       <c r="AJ1"/>
       <c r="AK1"/>
@@ -3574,8 +3583,9 @@
       <c r="CE1"/>
       <c r="CF1"/>
       <c r="CG1"/>
+      <c r="CH1"/>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3680,8 +3690,14 @@
       <c r="AF2" s="8">
         <v>309.01201398000001</v>
       </c>
+      <c r="AG2" s="9">
+        <v>245.91071031954422</v>
+      </c>
+      <c r="AH2" s="37">
+        <v>100.93286125628499</v>
+      </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3786,8 +3802,14 @@
       <c r="AF3" s="9">
         <v>298.38567883500002</v>
       </c>
+      <c r="AG3" s="9">
+        <v>222.09519516182397</v>
+      </c>
+      <c r="AH3" s="37">
+        <v>81.363882776267403</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3892,8 +3914,14 @@
       <c r="AF4" s="9">
         <v>290.103993135</v>
       </c>
+      <c r="AG4" s="9">
+        <v>258.88627749029746</v>
+      </c>
+      <c r="AH4" s="37">
+        <v>99.6107311898012</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3998,8 +4026,12 @@
       <c r="AF5" s="9">
         <v>306.53025057000002</v>
       </c>
-      <c r="AG5"/>
-      <c r="AH5"/>
+      <c r="AG5" s="39">
+        <v>226.24681722152147</v>
+      </c>
+      <c r="AH5" s="38">
+        <v>95.874703112104697</v>
+      </c>
       <c r="AI5"/>
       <c r="AJ5"/>
       <c r="AK5"/>
@@ -4051,8 +4083,9 @@
       <c r="CE5"/>
       <c r="CF5"/>
       <c r="CG5"/>
+      <c r="CH5"/>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4157,8 +4190,14 @@
       <c r="AF6" s="8">
         <v>283.56103376999999</v>
       </c>
+      <c r="AG6" s="9">
+        <v>146.53215228347113</v>
+      </c>
+      <c r="AH6" s="37">
+        <v>79.621292325743596</v>
+      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4263,8 +4302,14 @@
       <c r="AF7" s="9">
         <v>252.732321576</v>
       </c>
+      <c r="AG7" s="9">
+        <v>145.89082664822837</v>
+      </c>
+      <c r="AH7" s="37">
+        <v>68.891951082833202</v>
+      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4369,8 +4414,14 @@
       <c r="AF8" s="9">
         <v>279.26113865999997</v>
       </c>
+      <c r="AG8" s="9">
+        <v>161.93879907372218</v>
+      </c>
+      <c r="AH8" s="37">
+        <v>82.974932041823692</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -4475,8 +4526,12 @@
       <c r="AF9" s="9">
         <v>257.16018972000001</v>
       </c>
-      <c r="AG9"/>
-      <c r="AH9"/>
+      <c r="AG9" s="39">
+        <v>175.18766459663388</v>
+      </c>
+      <c r="AH9" s="38">
+        <v>92.615118053197804</v>
+      </c>
       <c r="AI9"/>
       <c r="AJ9"/>
       <c r="AK9"/>
@@ -4528,8 +4583,9 @@
       <c r="CE9"/>
       <c r="CF9"/>
       <c r="CG9"/>
+      <c r="CH9"/>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4634,8 +4690,14 @@
       <c r="AF10" s="8">
         <v>254.13785218699999</v>
       </c>
+      <c r="AG10" s="9">
+        <v>178.59359487411993</v>
+      </c>
+      <c r="AH10" s="37">
+        <v>84.524497465160096</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -4740,8 +4802,14 @@
       <c r="AF11" s="9">
         <v>251.37332921100003</v>
       </c>
+      <c r="AG11" s="9">
+        <v>185.3629208838872</v>
+      </c>
+      <c r="AH11" s="37">
+        <v>107.272266094979</v>
+      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4846,8 +4914,14 @@
       <c r="AF12" s="9">
         <v>203.459298284</v>
       </c>
+      <c r="AG12" s="9">
+        <v>164.98455669607787</v>
+      </c>
+      <c r="AH12" s="37">
+        <v>108.12422806444999</v>
+      </c>
     </row>
-    <row r="13" spans="1:85" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:86" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -4952,8 +5026,12 @@
       <c r="AF13" s="9">
         <v>239.52911702599999</v>
       </c>
-      <c r="AG13"/>
-      <c r="AH13"/>
+      <c r="AG13" s="39">
+        <v>160.49334246592932</v>
+      </c>
+      <c r="AH13" s="38">
+        <v>105.647654719172</v>
+      </c>
       <c r="AI13"/>
       <c r="AJ13"/>
       <c r="AK13"/>
@@ -5005,8 +5083,9 @@
       <c r="CE13"/>
       <c r="CF13"/>
       <c r="CG13"/>
+      <c r="CH13"/>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -5111,8 +5190,14 @@
       <c r="AF14" s="8">
         <v>319.80300672600004</v>
       </c>
+      <c r="AG14" s="9">
+        <v>235.37188201327476</v>
+      </c>
+      <c r="AH14" s="37">
+        <v>121.06324493130599</v>
+      </c>
     </row>
-    <row r="15" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -5217,8 +5302,14 @@
       <c r="AF15" s="9">
         <v>320.711615532</v>
       </c>
+      <c r="AG15" s="39">
+        <v>235.67231724464747</v>
+      </c>
+      <c r="AH15" s="38">
+        <v>109.244290183614</v>
+      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -5323,8 +5414,14 @@
       <c r="AF16" s="8">
         <v>434.33352176699998</v>
       </c>
+      <c r="AG16" s="9">
+        <v>212.39524420004415</v>
+      </c>
+      <c r="AH16" s="37">
+        <v>86.484138788040298</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -5429,8 +5526,14 @@
       <c r="AF17" s="9">
         <v>377.25082989399999</v>
       </c>
+      <c r="AG17" s="9">
+        <v>216.41047940845826</v>
+      </c>
+      <c r="AH17" s="37">
+        <v>81.4312517380814</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -5535,8 +5638,14 @@
       <c r="AF18" s="9">
         <v>344.44188684799997</v>
       </c>
+      <c r="AG18" s="9">
+        <v>197.53359039298127</v>
+      </c>
+      <c r="AH18" s="37">
+        <v>68.767103647130995</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -5641,8 +5750,14 @@
       <c r="AF19" s="9">
         <v>349.19639100899997</v>
       </c>
+      <c r="AG19" s="39">
+        <v>201.97921524230833</v>
+      </c>
+      <c r="AH19" s="38">
+        <v>78.696266161969305</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -5747,8 +5862,14 @@
       <c r="AF20" s="8">
         <v>233.94325363499999</v>
       </c>
+      <c r="AG20" s="9">
+        <v>235.24703640888569</v>
+      </c>
+      <c r="AH20" s="37">
+        <v>95.399311206624091</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -5853,8 +5974,14 @@
       <c r="AF21" s="9">
         <v>238.637122971</v>
       </c>
+      <c r="AG21" s="9">
+        <v>204.40411488983389</v>
+      </c>
+      <c r="AH21" s="37">
+        <v>94.980174708924395</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -5959,8 +6086,14 @@
       <c r="AF22" s="9">
         <v>237.56763377100003</v>
       </c>
+      <c r="AG22" s="9">
+        <v>252.06838643152179</v>
+      </c>
+      <c r="AH22" s="37">
+        <v>108.955125179804</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -6065,8 +6198,14 @@
       <c r="AF23" s="9">
         <v>246.77712423</v>
       </c>
+      <c r="AG23" s="39">
+        <v>242.22892199244293</v>
+      </c>
+      <c r="AH23" s="38">
+        <v>83.527449069429707</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9</v>
       </c>
@@ -6171,8 +6310,14 @@
       <c r="AF24" s="8">
         <v>259.74</v>
       </c>
+      <c r="AG24" s="9">
+        <v>174.25934792678058</v>
+      </c>
+      <c r="AH24" s="37">
+        <v>86.437286694387808</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -6277,8 +6422,14 @@
       <c r="AF25" s="9">
         <v>262.47000000000003</v>
       </c>
+      <c r="AG25" s="9">
+        <v>166.44401385040513</v>
+      </c>
+      <c r="AH25" s="37">
+        <v>86.473190738716397</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -6383,8 +6534,14 @@
       <c r="AF26" s="9">
         <v>275.73</v>
       </c>
+      <c r="AG26" s="9">
+        <v>186.33006893319765</v>
+      </c>
+      <c r="AH26" s="37">
+        <v>98.163355153881795</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -6489,8 +6646,14 @@
       <c r="AF27" s="9">
         <v>257.40000000000003</v>
       </c>
+      <c r="AG27" s="39">
+        <v>191.49708224680029</v>
+      </c>
+      <c r="AH27" s="38">
+        <v>100.47185566834899</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -6590,8 +6753,14 @@
       <c r="AF28" s="8">
         <v>171.99</v>
       </c>
+      <c r="AG28" s="9">
+        <v>107.37485751070813</v>
+      </c>
+      <c r="AH28" s="37">
+        <v>77.461875425571804</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -6696,8 +6865,14 @@
       <c r="AF29" s="9">
         <v>186.03</v>
       </c>
+      <c r="AG29" s="9">
+        <v>102.3611640755301</v>
+      </c>
+      <c r="AH29" s="37">
+        <v>75.188827770886505</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -6802,8 +6977,14 @@
       <c r="AF30" s="9">
         <v>178.62</v>
       </c>
+      <c r="AG30" s="9">
+        <v>94.153867583771458</v>
+      </c>
+      <c r="AH30" s="37">
+        <v>78.527599880490101</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -6908,8 +7089,14 @@
       <c r="AF31" s="9">
         <v>177.45000000000002</v>
       </c>
+      <c r="AG31" s="39">
+        <v>106.03886770645882</v>
+      </c>
+      <c r="AH31" s="38">
+        <v>73.666682235214608</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -7014,8 +7201,14 @@
       <c r="AF32" s="8">
         <v>214.89999999999998</v>
       </c>
+      <c r="AG32" s="9">
+        <v>174.289717122094</v>
+      </c>
+      <c r="AH32" s="37">
+        <v>102.42141363231801</v>
+      </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -7120,8 +7313,14 @@
       <c r="AF33" s="9">
         <v>194.6</v>
       </c>
+      <c r="AG33" s="9">
+        <v>191.77643524150508</v>
+      </c>
+      <c r="AH33" s="37">
+        <v>96.876644891461595</v>
+      </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -7226,8 +7425,14 @@
       <c r="AF34" s="9">
         <v>186.2</v>
       </c>
+      <c r="AG34" s="9">
+        <v>193.75263161648485</v>
+      </c>
+      <c r="AH34" s="37">
+        <v>84.1981821660859</v>
+      </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>11</v>
       </c>
@@ -7332,8 +7537,14 @@
       <c r="AF35" s="9">
         <v>191.79999999999998</v>
       </c>
+      <c r="AG35" s="39">
+        <v>159.66425759877023</v>
+      </c>
+      <c r="AH35" s="38">
+        <v>103.92680716956799</v>
+      </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12</v>
       </c>
@@ -7438,8 +7649,14 @@
       <c r="AF36" s="8">
         <v>246.4</v>
       </c>
+      <c r="AG36" s="9">
+        <v>209.32573518270402</v>
+      </c>
+      <c r="AH36" s="37">
+        <v>94.172466921798204</v>
+      </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -7544,8 +7761,14 @@
       <c r="AF37" s="9">
         <v>237.20000000000002</v>
       </c>
+      <c r="AG37" s="9">
+        <v>220.25871984719242</v>
+      </c>
+      <c r="AH37" s="37">
+        <v>95.849950087554504</v>
+      </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -7650,8 +7873,14 @@
       <c r="AF38" s="9">
         <v>229.20000000000002</v>
       </c>
+      <c r="AG38" s="9">
+        <v>197.73132864659465</v>
+      </c>
+      <c r="AH38" s="37">
+        <v>119.39568494447199</v>
+      </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -7756,8 +7985,14 @@
       <c r="AF39" s="9">
         <v>207.60000000000002</v>
       </c>
+      <c r="AG39" s="39">
+        <v>211.36394455541986</v>
+      </c>
+      <c r="AH39" s="38">
+        <v>114.293096716783</v>
+      </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -7862,8 +8097,14 @@
       <c r="AF40" s="8">
         <v>286.40000000000003</v>
       </c>
+      <c r="AG40" s="9">
+        <v>184.13857243079906</v>
+      </c>
+      <c r="AH40" s="37">
+        <v>105.88111964498</v>
+      </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
@@ -7968,8 +8209,14 @@
       <c r="AF41" s="9">
         <v>299.60000000000002</v>
       </c>
+      <c r="AG41" s="9">
+        <v>211.54300118255603</v>
+      </c>
+      <c r="AH41" s="37">
+        <v>93.350408088561295</v>
+      </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -8074,8 +8321,14 @@
       <c r="AF42" s="9">
         <v>299.2</v>
       </c>
+      <c r="AG42" s="9">
+        <v>174.2681061270786</v>
+      </c>
+      <c r="AH42" s="37">
+        <v>109.336674233647</v>
+      </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>13</v>
       </c>
@@ -8177,15 +8430,21 @@
       <c r="AE43" s="1">
         <v>1274</v>
       </c>
-      <c r="AF43" s="9">
+      <c r="AF43" s="39">
         <v>278</v>
       </c>
+      <c r="AG43" s="39">
+        <v>194.24463079231876</v>
+      </c>
+      <c r="AH43" s="38">
+        <v>109.946313836816</v>
+      </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="Z45" s="11"/>
       <c r="AC45" s="11"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G46" s="84"/>
       <c r="H46" s="84"/>
       <c r="I46" s="84"/>
@@ -8230,7 +8489,7 @@
       <c r="AE51" s="49"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CG43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CH43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
